--- a/DateBase/orders/Dang Nguyen_2025-4-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -773,10 +773,91 @@
       <c r="A41" t="str">
         <v>2</v>
       </c>
+      <c r="C41" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>3</v>
+      </c>
+      <c r="C50" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L50"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -834,7 +915,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08285664565565610101028586335555555555522420</v>
+        <v>08285664565565610101028586335555555555522426636865428</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-13.xlsx
@@ -917,6 +917,9 @@
       <c r="G2" t="str">
         <v>08285664565565610101028586335555555555522426636865428</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-4-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,418 +446,87 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+        <v>462_五针松_undefined_undefined_1bunch</v>
       </c>
       <c r="F2" t="str">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+        <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F4" t="str">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+        <v>329_柔丝_undefined_undefined_1bunch</v>
       </c>
       <c r="F5" t="str">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+        <v>329_柔丝_undefined_undefined_1bunch</v>
       </c>
       <c r="F6" t="str">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="str">
-        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
       </c>
       <c r="F7" t="str">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
       </c>
       <c r="F8" t="str">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <v>2</v>
+      </c>
       <c r="C9" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
       </c>
       <c r="F9" t="str">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>2</v>
-      </c>
       <c r="C10" t="str">
         <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
       <c r="F10" t="str">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
-      </c>
-      <c r="F11" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="str">
-        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
-      </c>
-      <c r="F12" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="str">
-        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
-      </c>
-      <c r="F13" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="str">
-        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F14" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
-      </c>
-      <c r="F15" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v>751_珍珠李粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F16" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="str">
-        <v>751_珍珠李粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F17" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>3</v>
-      </c>
-      <c r="C18" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F18" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F19" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F20" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="str">
-        <v>447_黄金球_craspedia_undefined_1bunch</v>
-      </c>
-      <c r="F21" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="str">
-        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F22" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
-      <c r="C23" t="str" xml:space="preserve">
-        <v xml:space="preserve">386_单瓣菟葵粉 
-green_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F23" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="str">
-        <v>481_重瓣菟葵粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F24" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="str">
-        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F25" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="str">
-        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F26" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" xml:space="preserve">
-      <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
-（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
-      </c>
-      <c r="F27" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>1</v>
-      </c>
-      <c r="C28" t="str">
-        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
-      </c>
-      <c r="F28" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="str">
-        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
-      </c>
-      <c r="F29" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="str">
-        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
-      </c>
-      <c r="F30" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="str">
-        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
-      </c>
-      <c r="F31" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
-      </c>
-      <c r="F32" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="str">
-        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F33" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="str">
-        <v>751_珍珠李粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F34" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v>162_珍珠贝母_Mother of Pearl_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F35" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" xml:space="preserve">
-      <c r="C36" t="str" xml:space="preserve">
-        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
-（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
-      </c>
-      <c r="F36" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="str">
-        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F37" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="str">
-        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F38" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" xml:space="preserve">
-      <c r="C39" t="str" xml:space="preserve">
-        <v xml:space="preserve">386_单瓣菟葵粉 
-green_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F39" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="str">
-        <v>481_重瓣菟葵粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F40" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>2</v>
-      </c>
-      <c r="C41" t="str">
-        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F41" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F42" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" t="str">
-        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F43" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F44" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="str">
-        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F45" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="str">
-        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F46" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F47" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" t="str">
-        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F48" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="str">
-        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F49" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>3</v>
-      </c>
-      <c r="C50" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F50" t="str">
-        <v>8</v>
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -915,10 +584,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08285664565565610101028586335555555555522426636865428</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>01510141215153025240</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-13.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>595_玉兰叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510141215153025240</v>
+        <v>01510141215153025243</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-13.xlsx
@@ -589,6 +589,9 @@
       <c r="G2" t="str">
         <v>01510141215153025243</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
